--- a/src/main/resources/template/excel/export/StoreGoodsReport.xlsx
+++ b/src/main/resources/template/excel/export/StoreGoodsReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,6 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +287,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +601,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,13 +705,13 @@
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -718,7 +727,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/StoreGoodsReport.xlsx
+++ b/src/main/resources/template/excel/export/StoreGoodsReport.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R3")</t>
+          <t>jx:area(lastCell="N4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>商品库存查询</t>
   </si>
@@ -173,13 +173,19 @@
     <t>${obj.branch}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -274,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,14 +291,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,26 +627,28 @@
     <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="14" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="12" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -705,13 +722,13 @@
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -720,6 +737,24 @@
       <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
